--- a/dataset/test.xlsx
+++ b/dataset/test.xlsx
@@ -785,7 +785,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43039</v>
+        <v>43462</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Marmagne</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="J5" t="n">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="K5" t="n">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="L5" t="n">
         <v>24</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="P5" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43040</v>
+        <v>43463</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Marmagne</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="J6" t="n">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="K6" t="n">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="L6" t="n">
         <v>69</v>
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43041</v>
+        <v>43464</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Marmagne</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="J7" t="n">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="K7" t="n">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="L7" t="n">
         <v>75</v>
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43042</v>
+        <v>43830</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Saint-Doulchard</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>942</v>
+        <v>1010</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="K8" t="n">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="L8" t="n">
         <v>24</v>
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="P8" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43043</v>
+        <v>43831</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1176,16 +1176,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Saint-Doulchard</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1197,13 +1197,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>942</v>
+        <v>1010</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="K9" t="n">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="L9" t="n">
         <v>69</v>
@@ -1219,16 +1219,16 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>43044</v>
+        <v>43832</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La Chapelle-Saint-Ursin</t>
+          <t>Saint-Doulchard</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0003</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>942</v>
+        <v>1010</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>425</v>
       </c>
       <c r="K10" t="n">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="L10" t="n">
         <v>75</v>
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>43462</v>
+        <v>43039</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Marmagne</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1387,13 +1387,13 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="J11" t="n">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="K11" t="n">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="L11" t="n">
         <v>24</v>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="P11" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43463</v>
+        <v>43040</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1461,16 +1461,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Marmagne</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="J12" t="n">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="K12" t="n">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="L12" t="n">
         <v>69</v>
@@ -1504,16 +1504,16 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="P12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>43464</v>
+        <v>43041</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -1556,16 +1556,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marmagne</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="J13" t="n">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="K13" t="n">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="L13" t="n">
         <v>75</v>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>43830</v>
+        <v>43833</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1957,13 +1957,13 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1010</v>
+        <v>668</v>
       </c>
       <c r="J17" t="n">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="K17" t="n">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="L17" t="n">
         <v>24</v>
@@ -1979,10 +1979,10 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="P17" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>43831</v>
+        <v>43834</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1010</v>
+        <v>668</v>
       </c>
       <c r="J18" t="n">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="L18" t="n">
         <v>69</v>
@@ -2074,16 +2074,16 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="P18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>43832</v>
+        <v>43835</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1010</v>
+        <v>668</v>
       </c>
       <c r="J19" t="n">
-        <v>425</v>
+        <v>317</v>
       </c>
       <c r="K19" t="n">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="L19" t="n">
         <v>75</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>43833</v>
+        <v>43042</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -2221,16 +2221,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Saint-Doulchard</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2242,13 +2242,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>668</v>
+        <v>942</v>
       </c>
       <c r="J20" t="n">
-        <v>317</v>
+        <v>501</v>
       </c>
       <c r="K20" t="n">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="L20" t="n">
         <v>24</v>
@@ -2264,10 +2264,10 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="P20" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>98</v>
+        <v>339</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43834</v>
+        <v>43043</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -2316,16 +2316,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Saint-Doulchard</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2337,13 +2337,13 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>668</v>
+        <v>942</v>
       </c>
       <c r="J21" t="n">
-        <v>317</v>
+        <v>501</v>
       </c>
       <c r="K21" t="n">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="L21" t="n">
         <v>69</v>
@@ -2359,16 +2359,16 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43835</v>
+        <v>43044</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Saint-Doulchard</t>
+          <t>La Chapelle-Saint-Ursin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0002</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2432,13 +2432,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>668</v>
+        <v>942</v>
       </c>
       <c r="J22" t="n">
-        <v>317</v>
+        <v>501</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>468</v>
       </c>
       <c r="L22" t="n">
         <v>75</v>
@@ -2454,10 +2454,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="P22" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
